--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron-Qiu/Desktop/JJFresh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E9443-ADF0-A94F-885C-CFEC2CD3C3B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE6C5A2-FCCE-DA41-BC5F-01760081818C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{CA982F02-6450-8344-B5E4-21D745E8A3E8}"/>
   </bookViews>
@@ -207,7 +207,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Current Sprint Burndown(4.27 - 5.8)</a:t>
+              <a:t>Current Sprint Burndown(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>5.11</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> - 5.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>22</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4467,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA103EA-19A1-F34E-9F90-74E64546EC76}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="83" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="58" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
